--- a/Odds Calculations.xlsx
+++ b/Odds Calculations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherballenger/Documents/Data Science/6372_Project2_HOF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{052F5116-82D5-1745-AE62-29030FC903B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3DD09F-F524-4046-8656-F4C4350DC61B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{8F83A7FB-9CAF-3343-B000-3C7563F369AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{8F83A7FB-9CAF-3343-B000-3C7563F369AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>V1</t>
   </si>
@@ -78,14 +78,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
@@ -100,6 +92,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
@@ -127,13 +125,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -449,26 +447,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798741CA-1606-484D-AEE7-ED051CC22383}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="2">
+      <c r="B1" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>0.97499999999999998</v>
       </c>
     </row>
@@ -476,8 +474,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -489,13 +487,13 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2.5787530000000001E-9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.507159E-12</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.8305610000000001E-6</v>
       </c>
     </row>
@@ -503,16 +501,16 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1.0039089999999999</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1.00223</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1.0056909999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f>EXP(1*B5)</f>
         <v>2.7289283872688213</v>
       </c>
@@ -521,13 +519,13 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1.01675</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1.005525</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1.028877</v>
       </c>
     </row>
@@ -535,13 +533,13 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3336594000000000</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>431423.1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>9.9888289999999995E+25</v>
       </c>
       <c r="E7">
@@ -561,13 +559,13 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1.2584740000000001</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1.092659</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1.465589</v>
       </c>
       <c r="G8">
@@ -579,13 +577,13 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1.5248839999999999</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1.3103389999999999</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1.8103750000000001</v>
       </c>
     </row>
@@ -593,18 +591,18 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>9.0401950000000006</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1.9723310000000001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>39.868139999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -617,7 +615,7 @@
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>-19.775959876999998</v>
       </c>
     </row>
@@ -625,7 +623,7 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>3.9016139999999999E-3</v>
       </c>
       <c r="C17">
@@ -637,7 +635,7 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>1.6611146E-2</v>
       </c>
       <c r="C18">
@@ -649,7 +647,7 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>35.743726914</v>
       </c>
       <c r="C19">
@@ -661,7 +659,7 @@
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>0.22989974599999999</v>
       </c>
       <c r="C20">
@@ -673,7 +671,7 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>0.42191820400000002</v>
       </c>
       <c r="C21">
@@ -685,7 +683,7 @@
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>2.2016807759999999</v>
       </c>
       <c r="C22">
@@ -694,7 +692,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -702,28 +700,58 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7">
+        <v>-21.666541367000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6.9049460000000003E-3</v>
+      </c>
+      <c r="C27">
+        <f>EXP(B27*300)</f>
+        <v>7.9365906986008934</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25">
-        <v>6.1945180000000002E-2</v>
-      </c>
-      <c r="C25">
-        <f>EXP(B25*30)</f>
-        <v>6.4131809763443357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="B28" s="7">
+        <v>5.4680733000000002E-2</v>
+      </c>
+      <c r="C28">
+        <f>EXP(B28*30)</f>
+        <v>5.1573454012865705</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B26">
-        <v>1.1446048799999999</v>
-      </c>
-      <c r="C26">
-        <f>EXP(B26*3)</f>
-        <v>30.994650962500678</v>
-      </c>
+      <c r="B29" s="7">
+        <v>1.113345638</v>
+      </c>
+      <c r="C29">
+        <f>EXP(B29*3)</f>
+        <v>28.220168405478347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Odds Calculations.xlsx
+++ b/Odds Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherballenger/Documents/Data Science/6372_Project2_HOF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3DD09F-F524-4046-8656-F4C4350DC61B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58270A0-0CFF-194C-BEDB-874F8216AF9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{8F83A7FB-9CAF-3343-B000-3C7563F369AB}"/>
   </bookViews>
@@ -449,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798741CA-1606-484D-AEE7-ED051CC22383}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>

--- a/Odds Calculations.xlsx
+++ b/Odds Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherballenger/Documents/Data Science/6372_Project2_HOF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58270A0-0CFF-194C-BEDB-874F8216AF9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE1D8D-2989-E143-B30A-AD39CC25AC78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{8F83A7FB-9CAF-3343-B000-3C7563F369AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{8F83A7FB-9CAF-3343-B000-3C7563F369AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,8 +130,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -463,10 +463,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="6">
+      <c r="B1" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="7">
         <v>0.97499999999999998</v>
       </c>
     </row>
@@ -474,8 +474,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -706,7 +706,7 @@
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>-21.666541367000001</v>
       </c>
     </row>
@@ -714,7 +714,7 @@
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>6.9049460000000003E-3</v>
       </c>
       <c r="C27">
@@ -726,7 +726,7 @@
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>5.4680733000000002E-2</v>
       </c>
       <c r="C28">
@@ -738,7 +738,7 @@
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>1.113345638</v>
       </c>
       <c r="C29">
